--- a/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
+++ b/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhosash\Desktop\31st Jan\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Color Codes</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>External XLM loop card</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -359,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +652,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +772,9 @@
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
@@ -805,7 +816,9 @@
       <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>45</v>
       </c>
@@ -846,6 +859,9 @@
       </c>
       <c r="G9" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>41</v>
@@ -1054,5 +1070,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
+++ b/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,7 +186,7 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>40V (A)</t>
+    <t>40V Rail(A)</t>
   </si>
 </sst>
 </file>
@@ -351,6 +351,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -365,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,12 +668,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -686,10 +686,10 @@
       <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -737,12 +737,12 @@
     </row>
     <row r="6" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="N6" s="16" t="s">
         <v>39</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -860,7 +860,7 @@
       <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>53</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -898,12 +898,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -916,10 +916,10 @@
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>

--- a/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
+++ b/Test Data/Verify_40V_Calculation_For_XLMCard_with_Devices.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81035503-D315-41BC-BB76-F271527E43AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Color Codes</t>
   </si>
@@ -174,12 +175,6 @@
     <t>0.160</t>
   </si>
   <si>
-    <t>MZX125</t>
-  </si>
-  <si>
-    <t>0.080</t>
-  </si>
-  <si>
     <t>External XLM loop card</t>
   </si>
   <si>
@@ -187,12 +182,21 @@
   </si>
   <si>
     <t>40V Rail(A)</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>MZX250</t>
+  </si>
+  <si>
+    <t>NGC-601/T1465 OR TC-217</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +719,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -738,7 +744,7 @@
     <row r="6" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="I6" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -773,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>21</v>
@@ -817,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>45</v>
@@ -840,7 +846,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -855,13 +861,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>41</v>
@@ -882,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
